--- a/COVID-19 Apps/Confirmed Day Zero USA.xlsx
+++ b/COVID-19 Apps/Confirmed Day Zero USA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D30A2F-21AC-4163-A984-ED40E83D3CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3BD9BD-A114-43D1-B4B5-B6ACC1D0D497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,9 +1031,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1057,16 +1057,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$3:$N$3</c:f>
+              <c:f>'Confirmed Day Zero'!$G$3:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1081,6 +1084,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,9 +1126,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1146,16 +1152,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$4:$N$4</c:f>
+              <c:f>'Confirmed Day Zero'!$G$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1194,9 +1206,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1220,16 +1232,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$5:$N$5</c:f>
+              <c:f>'Confirmed Day Zero'!$G$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1253,6 +1268,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,9 +1310,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1318,16 +1336,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$6:$N$6</c:f>
+              <c:f>'Confirmed Day Zero'!$G$6:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1345,6 +1366,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,9 +1409,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1411,16 +1435,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$7:$N$7</c:f>
+              <c:f>'Confirmed Day Zero'!$G$7:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>144</c:v>
                 </c:pt>
@@ -1444,6 +1471,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,9 +1515,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1511,16 +1541,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$8:$N$8</c:f>
+              <c:f>'Confirmed Day Zero'!$G$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1544,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,9 +1621,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1611,16 +1647,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$9:$N$9</c:f>
+              <c:f>'Confirmed Day Zero'!$G$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1637,6 +1676,9 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
@@ -1679,9 +1721,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1705,16 +1747,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$10:$N$10</c:f>
+              <c:f>'Confirmed Day Zero'!$G$10:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1726,6 +1771,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,9 +1815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1793,16 +1841,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$11:$N$11</c:f>
+              <c:f>'Confirmed Day Zero'!$G$11:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1826,6 +1877,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,9 +1921,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1893,16 +1947,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$12:$N$12</c:f>
+              <c:f>'Confirmed Day Zero'!$G$12:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1926,6 +1983,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,9 +2027,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -1993,16 +2053,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$13:$N$13</c:f>
+              <c:f>'Confirmed Day Zero'!$G$13:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -2026,6 +2089,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,9 +2134,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2094,16 +2160,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$14:$N$14</c:f>
+              <c:f>'Confirmed Day Zero'!$G$14:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2145,9 +2217,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2171,16 +2243,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$15:$N$15</c:f>
+              <c:f>'Confirmed Day Zero'!$G$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2189,6 +2264,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,9 +2309,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2257,16 +2335,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$16:$N$16</c:f>
+              <c:f>'Confirmed Day Zero'!$G$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2275,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2317,9 +2401,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2343,16 +2427,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$17:$N$17</c:f>
+              <c:f>'Confirmed Day Zero'!$G$17:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2376,6 +2463,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,9 +2508,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2444,16 +2534,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$18:$N$18</c:f>
+              <c:f>'Confirmed Day Zero'!$G$18:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2477,6 +2570,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,9 +2615,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2545,16 +2641,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$19:$N$19</c:f>
+              <c:f>'Confirmed Day Zero'!$G$19:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2578,6 +2677,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,9 +2721,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2645,16 +2747,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$20:$N$20</c:f>
+              <c:f>'Confirmed Day Zero'!$G$20:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2668,6 +2773,9 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -2710,9 +2818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2736,16 +2844,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$21:$N$21</c:f>
+              <c:f>'Confirmed Day Zero'!$G$21:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2769,6 +2880,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,9 +2924,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2836,16 +2950,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$22:$N$22</c:f>
+              <c:f>'Confirmed Day Zero'!$G$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2866,6 +2983,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,9 +3027,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -2933,16 +3053,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$23:$N$23</c:f>
+              <c:f>'Confirmed Day Zero'!$G$23:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2951,6 +3074,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,9 +3118,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3018,16 +3144,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$24:$N$24</c:f>
+              <c:f>'Confirmed Day Zero'!$G$24:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -3051,6 +3180,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,9 +3224,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3118,16 +3250,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$25:$N$25</c:f>
+              <c:f>'Confirmed Day Zero'!$G$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -3150,6 +3285,9 @@
                   <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
@@ -3193,9 +3331,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3219,16 +3357,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$26:$N$26</c:f>
+              <c:f>'Confirmed Day Zero'!$G$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -3243,6 +3384,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3285,9 +3429,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3311,16 +3455,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$27:$N$27</c:f>
+              <c:f>'Confirmed Day Zero'!$G$27:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3341,6 +3488,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3383,9 +3533,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3409,16 +3559,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$28:$N$28</c:f>
+              <c:f>'Confirmed Day Zero'!$G$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3430,6 +3583,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,9 +3628,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3498,16 +3654,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$29:$N$29</c:f>
+              <c:f>'Confirmed Day Zero'!$G$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3516,6 +3675,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,9 +3720,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3584,16 +3746,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$30:$N$30</c:f>
+              <c:f>'Confirmed Day Zero'!$G$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3605,6 +3770,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,9 +3815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3673,16 +3841,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$31:$N$31</c:f>
+              <c:f>'Confirmed Day Zero'!$G$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3703,6 +3874,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,9 +3918,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3770,16 +3944,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$32:$N$32</c:f>
+              <c:f>'Confirmed Day Zero'!$G$32:$O$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3800,6 +3977,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,9 +4021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3867,16 +4047,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$33:$N$33</c:f>
+              <c:f>'Confirmed Day Zero'!$G$33:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -3896,6 +4079,9 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3939,9 +4125,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -3965,16 +4151,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$34:$N$34</c:f>
+              <c:f>'Confirmed Day Zero'!$G$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3997,6 +4186,9 @@
                   <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>267</c:v>
                 </c:pt>
               </c:numCache>
@@ -4039,9 +4231,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4065,16 +4257,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$35:$N$35</c:f>
+              <c:f>'Confirmed Day Zero'!$G$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4091,6 +4286,9 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -4134,9 +4332,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4160,16 +4358,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$36:$N$36</c:f>
+              <c:f>'Confirmed Day Zero'!$G$36:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>173</c:v>
                 </c:pt>
@@ -4193,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4234,9 +4438,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4260,16 +4464,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$37:$N$37</c:f>
+              <c:f>'Confirmed Day Zero'!$G$37:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4293,6 +4500,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,9 +4545,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4361,16 +4571,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$38:$N$38</c:f>
+              <c:f>'Confirmed Day Zero'!$G$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4412,9 +4628,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4438,16 +4654,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$39:$N$39</c:f>
+              <c:f>'Confirmed Day Zero'!$G$39:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4465,6 +4684,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4507,9 +4729,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4533,16 +4755,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$40:$N$40</c:f>
+              <c:f>'Confirmed Day Zero'!$G$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4550,6 +4775,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
@@ -4593,9 +4821,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4619,16 +4847,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$41:$N$41</c:f>
+              <c:f>'Confirmed Day Zero'!$G$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4652,6 +4883,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,9 +4928,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4720,16 +4954,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$42:$N$42</c:f>
+              <c:f>'Confirmed Day Zero'!$G$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -4753,6 +4990,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,9 +5035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4821,16 +5061,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$43:$N$43</c:f>
+              <c:f>'Confirmed Day Zero'!$G$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4838,6 +5081,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4880,9 +5126,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -4906,16 +5152,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$44:$N$44</c:f>
+              <c:f>'Confirmed Day Zero'!$G$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -4936,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4977,9 +5229,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5003,16 +5255,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$45:$N$45</c:f>
+              <c:f>'Confirmed Day Zero'!$G$45:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5035,6 +5290,9 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
@@ -5077,9 +5335,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5103,16 +5361,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$46:$N$46</c:f>
+              <c:f>'Confirmed Day Zero'!$G$46:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -5132,6 +5393,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -5174,9 +5438,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5200,16 +5464,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$47:$N$47</c:f>
+              <c:f>'Confirmed Day Zero'!$G$47:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5233,6 +5500,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,9 +5544,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5300,16 +5570,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$48:$N$48</c:f>
+              <c:f>'Confirmed Day Zero'!$G$48:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -5333,6 +5606,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5374,9 +5650,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5400,16 +5676,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$49:$N$49</c:f>
+              <c:f>'Confirmed Day Zero'!$G$49:$O$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5426,6 +5705,9 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -5469,9 +5751,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5495,16 +5777,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$50:$N$50</c:f>
+              <c:f>'Confirmed Day Zero'!$G$50:$O$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5516,6 +5801,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,9 +5846,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5584,16 +5872,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$51:$N$51</c:f>
+              <c:f>'Confirmed Day Zero'!$G$51:$O$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5635,9 +5926,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5661,16 +5952,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$52:$N$52</c:f>
+              <c:f>'Confirmed Day Zero'!$G$52:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5694,6 +5988,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5734,9 +6031,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5760,16 +6057,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$53:$N$53</c:f>
+              <c:f>'Confirmed Day Zero'!$G$53:$O$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>267</c:v>
                 </c:pt>
@@ -5793,6 +6093,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,9 +6138,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5861,16 +6164,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$54:$N$54</c:f>
+              <c:f>'Confirmed Day Zero'!$G$54:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5912,9 +6218,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -5938,16 +6244,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$55:$N$55</c:f>
+              <c:f>'Confirmed Day Zero'!$G$55:$O$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -5968,6 +6277,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,9 +6319,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6033,18 +6345,24 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$56:$N$56</c:f>
+              <c:f>'Confirmed Day Zero'!$G$56:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6107,12 +6425,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$1:$N$1</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$1:$O$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>Day 1</c:v>
                       </c:pt>
@@ -6137,6 +6455,9 @@
                       <c:pt idx="7">
                         <c:v>Day 8</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Day 9</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -6145,13 +6466,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$2:$N$2</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$2:$O$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>892</c:v>
                       </c:pt>
@@ -6175,6 +6496,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>6353</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7715</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6498,9 +6822,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6524,16 +6848,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$60:$N$60</c:f>
+              <c:f>'Confirmed Day Zero'!$G$60:$O$60</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.019745328801585E-3</c:v>
                 </c:pt>
@@ -6550,12 +6877,15 @@
                   <c:v>7.9540135646523642E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>9.381657024974583E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -6596,9 +6926,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6622,38 +6952,44 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$61:$N$61</c:f>
+              <c:f>'Confirmed Day Zero'!$G$61:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.2018194369450955E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -6694,9 +7030,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6720,16 +7056,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$62:$N$62</c:f>
+              <c:f>'Confirmed Day Zero'!$G$62:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.2432109944650955E-4</c:v>
                 </c:pt>
@@ -6753,6 +7092,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.7477369981550323E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7094449475092929E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6792,9 +7134,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6818,16 +7160,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$63:$N$63</c:f>
+              <c:f>'Confirmed Day Zero'!$G$63:$O$63</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.9882006916287476E-3</c:v>
                 </c:pt>
@@ -6847,9 +7192,12 @@
                   <c:v>7.2900692026387397E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.093510380395811E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -6891,9 +7239,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -6917,16 +7265,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$64:$N$64</c:f>
+              <c:f>'Confirmed Day Zero'!$G$64:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.6444418730882341E-3</c:v>
                 </c:pt>
@@ -6950,6 +7301,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.7665419634830468E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9006776713119889E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6991,9 +7345,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7017,16 +7371,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$65:$N$65</c:f>
+              <c:f>'Confirmed Day Zero'!$G$65:$O$65</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.6047382620074961E-3</c:v>
                 </c:pt>
@@ -7050,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.7783874794746626E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1951456013958615E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,9 +7451,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7117,16 +7477,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$66:$N$66</c:f>
+              <c:f>'Confirmed Day Zero'!$G$66:$O$66</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4024116431580404E-3</c:v>
                 </c:pt>
@@ -7146,9 +7509,12 @@
                   <c:v>1.9072798346949346E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.9072798346949346E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7191,9 +7557,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7217,16 +7583,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$67:$N$67</c:f>
+              <c:f>'Confirmed Day Zero'!$G$67:$O$67</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.1616572393310897E-3</c:v>
                 </c:pt>
@@ -7240,15 +7609,18 @@
                   <c:v>1.6431085971549575E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.951191459121512E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7291,9 +7663,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7317,16 +7689,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$68:$N$68</c:f>
+              <c:f>'Confirmed Day Zero'!$G$68:$O$68</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.0846717459039973E-3</c:v>
                 </c:pt>
@@ -7350,6 +7725,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.1172555681977583E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3924964824604777E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7391,9 +7769,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7417,16 +7795,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$69:$N$69</c:f>
+              <c:f>'Confirmed Day Zero'!$G$69:$O$69</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.9839760119979114E-4</c:v>
                 </c:pt>
@@ -7450,6 +7831,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.0056925457276994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.461978978511563E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,9 +7875,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7517,16 +7901,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$70:$N$70</c:f>
+              <c:f>'Confirmed Day Zero'!$G$70:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.6011418213251936E-3</c:v>
                 </c:pt>
@@ -7550,6 +7937,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.3750982700792837E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8742777790806676E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7592,9 +7982,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7618,38 +8008,44 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$71:$N$71</c:f>
+              <c:f>'Confirmed Day Zero'!$G$71:$O$71</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0723476422804194E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7693,9 +8089,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7719,16 +8115,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$72:$N$72</c:f>
+              <c:f>'Confirmed Day Zero'!$G$72:$O$72</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.2376712019165574E-3</c:v>
                 </c:pt>
@@ -7739,18 +8138,21 @@
                   <c:v>7.0627853365275951E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9.8878994711386337E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7794,9 +8196,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7820,16 +8222,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$73:$N$73</c:f>
+              <c:f>'Confirmed Day Zero'!$G$73:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.7978836807838548E-3</c:v>
                 </c:pt>
@@ -7840,18 +8245,21 @@
                   <c:v>4.4766138892541676E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.0361906254109395E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -7895,9 +8303,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -7921,16 +8329,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$74:$N$74</c:f>
+              <c:f>'Confirmed Day Zero'!$G$74:$O$74</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.4698307370345586E-4</c:v>
                 </c:pt>
@@ -7954,6 +8365,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2705356238854701E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2784271494996653E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7996,9 +8410,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8022,16 +8436,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$75:$N$75</c:f>
+              <c:f>'Confirmed Day Zero'!$G$75:$O$75</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.912366041568167E-4</c:v>
                 </c:pt>
@@ -8055,6 +8472,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.4561830207840835E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7930379270193086E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8097,9 +8517,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8123,16 +8543,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$76:$N$76</c:f>
+              <c:f>'Confirmed Day Zero'!$G$76:$O$76</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.535601428811405E-3</c:v>
                 </c:pt>
@@ -8156,6 +8579,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.2898541078327897E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1915551794413443E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8197,9 +8623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8223,16 +8649,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$77:$N$77</c:f>
+              <c:f>'Confirmed Day Zero'!$G$77:$O$77</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.7162585289467595E-3</c:v>
                 </c:pt>
@@ -8249,12 +8678,15 @@
                   <c:v>6.1785307042083347E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6.1785307042083347E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8297,9 +8729,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8323,16 +8755,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$78:$N$78</c:f>
+              <c:f>'Confirmed Day Zero'!$G$78:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.342981010472342E-3</c:v>
                 </c:pt>
@@ -8356,6 +8791,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.8195843787134825E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0434145471255397E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8397,9 +8835,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8423,16 +8861,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$79:$N$79</c:f>
+              <c:f>'Confirmed Day Zero'!$G$79:$O$79</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.2906573188659254E-3</c:v>
                 </c:pt>
@@ -8455,6 +8896,9 @@
                   <c:v>4.2161472416286885E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5.5283155158090465E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8497,9 +8941,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8523,16 +8967,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$80:$N$80</c:f>
+              <c:f>'Confirmed Day Zero'!$G$80:$O$80</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.9271632748405758E-3</c:v>
                 </c:pt>
@@ -8543,18 +8990,21 @@
                   <c:v>2.3805768732908201E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.1245071461942012E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8597,9 +9047,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8623,16 +9073,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$81:$N$81</c:f>
+              <c:f>'Confirmed Day Zero'!$G$81:$O$81</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.323258922073282E-3</c:v>
                 </c:pt>
@@ -8656,6 +9109,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.9244419155496144E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4059626047028623E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8697,9 +9153,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8723,16 +9179,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$82:$N$82</c:f>
+              <c:f>'Confirmed Day Zero'!$G$82:$O$82</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.3347836047369149E-2</c:v>
                 </c:pt>
@@ -8755,6 +9214,9 @@
                   <c:v>2.8581779362301329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.1628568025287768E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.1628568025287768E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -8798,9 +9260,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8824,16 +9286,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$83:$N$83</c:f>
+              <c:f>'Confirmed Day Zero'!$G$83:$O$83</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.6021056474524468E-3</c:v>
                 </c:pt>
@@ -8850,12 +9315,15 @@
                   <c:v>6.5085541927755652E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8.3109230461595671E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -8899,9 +9367,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -8925,16 +9393,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$84:$N$84</c:f>
+              <c:f>'Confirmed Day Zero'!$G$84:$O$84</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.8658267064233975E-4</c:v>
                 </c:pt>
@@ -8957,6 +9428,9 @@
                   <c:v>1.0638992047708077E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.3653373127892032E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9000,9 +9474,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9026,16 +9500,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$85:$N$85</c:f>
+              <c:f>'Confirmed Day Zero'!$G$85:$O$85</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.0160280953675372E-3</c:v>
                 </c:pt>
@@ -9049,15 +9526,18 @@
                   <c:v>7.056098333786379E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.1424159207082708E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9101,9 +9581,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9127,16 +9607,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$86:$N$86</c:f>
+              <c:f>'Confirmed Day Zero'!$G$86:$O$86</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.1467350818616527E-4</c:v>
                 </c:pt>
@@ -9147,18 +9630,21 @@
                   <c:v>1.7922817180095636E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.9328246294701953E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9202,9 +9688,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9228,16 +9714,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$87:$N$87</c:f>
+              <c:f>'Confirmed Day Zero'!$G$87:$O$87</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.6782400086828133E-3</c:v>
                 </c:pt>
@@ -9251,15 +9740,18 @@
                   <c:v>8.4208320156290636E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.029212801910219E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9303,9 +9795,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9329,16 +9821,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$88:$N$88</c:f>
+              <c:f>'Confirmed Day Zero'!$G$88:$O$88</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5847701208845286E-3</c:v>
                 </c:pt>
@@ -9361,6 +9856,9 @@
                   <c:v>1.0856034507715022E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.2406896580245739E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9403,9 +9901,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9429,16 +9927,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$89:$N$89</c:f>
+              <c:f>'Confirmed Day Zero'!$G$89:$O$89</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.2726121663967673E-3</c:v>
                 </c:pt>
@@ -9461,6 +9962,9 @@
                   <c:v>1.8180897331174138E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.7856238450260312E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9503,9 +10007,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9529,16 +10033,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$90:$N$90</c:f>
+              <c:f>'Confirmed Day Zero'!$G$90:$O$90</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.6772520042862053E-3</c:v>
                 </c:pt>
@@ -9561,6 +10068,9 @@
                   <c:v>1.9121710422288267E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.9121710422288267E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9604,9 +10114,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9630,16 +10140,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$91:$N$91</c:f>
+              <c:f>'Confirmed Day Zero'!$G$91:$O$91</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.6887727013270375E-3</c:v>
                 </c:pt>
@@ -9662,6 +10175,9 @@
                   <c:v>2.0040102722414181E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.0060154083621268E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.0060154083621268E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9704,9 +10220,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9730,16 +10246,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$92:$N$92</c:f>
+              <c:f>'Confirmed Day Zero'!$G$92:$O$92</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.3845530560670423E-3</c:v>
                 </c:pt>
@@ -9759,9 +10278,12 @@
                   <c:v>1.0968944057908395E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.0968944057908395E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -9805,9 +10327,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9831,16 +10353,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$93:$N$93</c:f>
+              <c:f>'Confirmed Day Zero'!$G$93:$O$93</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.8929733738722701E-3</c:v>
                 </c:pt>
@@ -9864,6 +10389,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.7696026449861797E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12825415357116365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9905,9 +10433,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -9931,16 +10459,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$94:$N$94</c:f>
+              <c:f>'Confirmed Day Zero'!$G$94:$O$94</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.6742409767122388E-4</c:v>
                 </c:pt>
@@ -9964,6 +10495,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.1021631787083318E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6742409767122386E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10006,9 +10540,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10032,38 +10566,44 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$95:$N$95</c:f>
+              <c:f>'Confirmed Day Zero'!$G$95:$O$95</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.8733751322070909E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10107,9 +10647,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10133,16 +10673,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$96:$N$96</c:f>
+              <c:f>'Confirmed Day Zero'!$G$96:$O$96</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.2774892848893411E-4</c:v>
                 </c:pt>
@@ -10162,9 +10705,12 @@
                   <c:v>5.7318356417517171E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7.3572815700096673E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10208,9 +10754,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10234,16 +10780,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$97:$N$97</c:f>
+              <c:f>'Confirmed Day Zero'!$G$97:$O$97</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.7690298968579756E-3</c:v>
                 </c:pt>
@@ -10254,18 +10803,21 @@
                   <c:v>4.8016525771859336E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.8016525771859336E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10309,9 +10861,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10335,16 +10887,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$98:$N$98</c:f>
+              <c:f>'Confirmed Day Zero'!$G$98:$O$98</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.5564095153396242E-3</c:v>
                 </c:pt>
@@ -10368,6 +10923,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.5648201867494344E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6122389802872963E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10410,9 +10968,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10436,16 +10994,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$99:$N$99</c:f>
+              <c:f>'Confirmed Day Zero'!$G$99:$O$99</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.3735434392265137E-4</c:v>
                 </c:pt>
@@ -10469,6 +11030,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.748640543278079E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1873155023020252E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10511,9 +11075,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10537,16 +11101,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$100:$N$100</c:f>
+              <c:f>'Confirmed Day Zero'!$G$100:$O$100</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.5655851812978951E-3</c:v>
                 </c:pt>
@@ -10557,18 +11124,21 @@
                   <c:v>1.5655851812978951E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.5655851812978951E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10611,9 +11181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10637,16 +11207,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$101:$N$101</c:f>
+              <c:f>'Confirmed Day Zero'!$G$101:$O$101</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.7198263859062209E-3</c:v>
                 </c:pt>
@@ -10669,6 +11242,9 @@
                   <c:v>2.1711201375168614E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.1150854146981054E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10711,9 +11287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10737,16 +11313,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$102:$N$102</c:f>
+              <c:f>'Confirmed Day Zero'!$G$102:$O$102</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.35956279568063E-3</c:v>
                 </c:pt>
@@ -10769,6 +11348,9 @@
                   <c:v>6.409367465351542E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9.1284930567128025E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.1284930567128025E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -10811,9 +11393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10837,16 +11419,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$103:$N$103</c:f>
+              <c:f>'Confirmed Day Zero'!$G$103:$O$103</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.0430324000547093E-3</c:v>
                 </c:pt>
@@ -10869,6 +11454,9 @@
                   <c:v>1.2434169550075227E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.2434169550075227E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -10911,9 +11499,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -10937,16 +11525,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$104:$N$104</c:f>
+              <c:f>'Confirmed Day Zero'!$G$104:$O$104</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0250141525168343E-3</c:v>
                 </c:pt>
@@ -10970,6 +11561,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.0835863898035106E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.156801686411856E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11011,9 +11605,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11037,16 +11631,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$105:$N$105</c:f>
+              <c:f>'Confirmed Day Zero'!$G$105:$O$105</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4.4833954174387732E-4</c:v>
                 </c:pt>
@@ -11070,6 +11667,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.7936422762943471E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.966364670899291E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11111,9 +11711,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11137,16 +11737,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$106:$N$106</c:f>
+              <c:f>'Confirmed Day Zero'!$G$106:$O$106</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.5595962267752729E-3</c:v>
                 </c:pt>
@@ -11166,9 +11769,12 @@
                   <c:v>1.5907881513107784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.5907881513107784E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11212,9 +11818,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11238,16 +11844,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$107:$N$107</c:f>
+              <c:f>'Confirmed Day Zero'!$G$107:$O$107</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.0129617669542248E-3</c:v>
                 </c:pt>
@@ -11261,15 +11870,18 @@
                   <c:v>1.9231108240690138E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.8846662361035211E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11313,9 +11925,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11339,16 +11951,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$108:$N$108</c:f>
+              <c:f>'Confirmed Day Zero'!$G$108:$O$108</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -11371,6 +11986,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11414,9 +12032,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11440,16 +12058,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$109:$N$109</c:f>
+              <c:f>'Confirmed Day Zero'!$G$109:$O$109</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>8.2010244485426135E-4</c:v>
                 </c:pt>
@@ -11473,6 +12094,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.8495519721765022E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0211268933968747E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11513,9 +12137,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11539,16 +12163,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$110:$N$110</c:f>
+              <c:f>'Confirmed Day Zero'!$G$110:$O$110</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.5062869563630111E-2</c:v>
                 </c:pt>
@@ -11572,6 +12199,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.14130205112534083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13316011137648293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11614,9 +12244,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11640,16 +12270,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$111:$N$111</c:f>
+              <c:f>'Confirmed Day Zero'!$G$111:$O$111</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -11672,6 +12305,9 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11715,9 +12351,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11741,16 +12377,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$112:$N$112</c:f>
+              <c:f>'Confirmed Day Zero'!$G$112:$O$112</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0304968678047704E-3</c:v>
                 </c:pt>
@@ -11773,6 +12412,9 @@
                   <c:v>1.2365962413657243E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.5800951973006478E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11813,9 +12455,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Confirmed Day Zero'!$G$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+              <c:f>'Confirmed Day Zero'!$G$1:$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Day 1</c:v>
                 </c:pt>
@@ -11839,38 +12481,44 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Confirmed Day Zero'!$G$113:$N$113</c:f>
+              <c:f>'Confirmed Day Zero'!$G$113:$O$113</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.9006183921113969E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.5917523528791776E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>#N/A</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -11934,12 +12582,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$1:$N$1</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$1:$O$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>Day 1</c:v>
                       </c:pt>
@@ -11964,6 +12612,9 @@
                       <c:pt idx="7">
                         <c:v>Day 8</c:v>
                       </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Day 9</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
@@ -11972,13 +12623,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Confirmed Day Zero'!$G$59:$N$59</c15:sqref>
+                          <c15:sqref>'Confirmed Day Zero'!$G$59:$O$59</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0.000</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>2.6948424651740931E-3</c:v>
                       </c:pt>
@@ -12002,6 +12653,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>1.9193199754765709E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.3307970424684001E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13707,8 +14361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="E62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13944,6 +14598,9 @@
       <c r="N2">
         <v>6353</v>
       </c>
+      <c r="O2">
+        <v>7715</v>
+      </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -13976,6 +14633,9 @@
       <c r="K3">
         <v>39</v>
       </c>
+      <c r="L3">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -13993,6 +14653,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -14034,6 +14697,9 @@
       <c r="N5">
         <v>20</v>
       </c>
+      <c r="O5">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -14069,6 +14735,9 @@
       <c r="L6">
         <v>22</v>
       </c>
+      <c r="M6">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -14110,6 +14779,9 @@
       <c r="N7">
         <v>698</v>
       </c>
+      <c r="O7">
+        <v>751</v>
+      </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -14151,6 +14823,9 @@
       <c r="N8">
         <v>160</v>
       </c>
+      <c r="O8">
+        <v>184</v>
+      </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -14186,6 +14861,9 @@
       <c r="L9">
         <v>68</v>
       </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14215,6 +14893,9 @@
       <c r="J10">
         <v>16</v>
       </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -14256,6 +14937,9 @@
       <c r="N11">
         <v>22</v>
       </c>
+      <c r="O11">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -14297,6 +14981,9 @@
       <c r="N12">
         <v>216</v>
       </c>
+      <c r="O12">
+        <v>314</v>
+      </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -14338,6 +15025,9 @@
       <c r="N13">
         <v>146</v>
       </c>
+      <c r="O13">
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -14355,6 +15045,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -14381,6 +15074,9 @@
       <c r="I15">
         <v>10</v>
       </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -14407,8 +15103,11 @@
       <c r="I16">
         <v>8</v>
       </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -14448,8 +15147,11 @@
       <c r="N17">
         <v>161</v>
       </c>
+      <c r="O17">
+        <v>162</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -14489,8 +15191,11 @@
       <c r="N18">
         <v>30</v>
       </c>
+      <c r="O18">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -14530,8 +15235,11 @@
       <c r="N19">
         <v>23</v>
       </c>
+      <c r="O19">
+        <v>29</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -14562,8 +15270,11 @@
       <c r="K20">
         <v>18</v>
       </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -14603,8 +15314,11 @@
       <c r="N21">
         <v>26</v>
       </c>
+      <c r="O21">
+        <v>27</v>
+      </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -14641,8 +15355,11 @@
       <c r="M22">
         <v>196</v>
       </c>
+      <c r="N22">
+        <v>257</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -14667,8 +15384,11 @@
       <c r="I23">
         <v>32</v>
       </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -14708,8 +15428,11 @@
       <c r="N24">
         <v>60</v>
       </c>
+      <c r="O24">
+        <v>85</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -14749,8 +15472,11 @@
       <c r="N25">
         <v>218</v>
       </c>
+      <c r="O25">
+        <v>218</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -14781,8 +15507,11 @@
       <c r="K26">
         <v>65</v>
       </c>
+      <c r="L26">
+        <v>83</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -14819,8 +15548,11 @@
       <c r="M27">
         <v>60</v>
       </c>
+      <c r="N27">
+        <v>77</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -14848,8 +15580,11 @@
       <c r="J28">
         <v>21</v>
       </c>
+      <c r="K28">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -14874,8 +15609,11 @@
       <c r="I29">
         <v>11</v>
       </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -14903,8 +15641,11 @@
       <c r="J30">
         <v>9</v>
       </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -14941,8 +15682,11 @@
       <c r="M31">
         <v>21</v>
       </c>
+      <c r="N31">
+        <v>24</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -14979,8 +15723,11 @@
       <c r="M32">
         <v>56</v>
       </c>
+      <c r="N32">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -15017,8 +15764,11 @@
       <c r="M33">
         <v>26</v>
       </c>
+      <c r="N33">
+        <v>26</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -15058,8 +15808,11 @@
       <c r="N34">
         <v>267</v>
       </c>
+      <c r="O34">
+        <v>267</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -15093,8 +15846,11 @@
       <c r="L35">
         <v>23</v>
       </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -15134,8 +15890,11 @@
       <c r="N36">
         <v>1706</v>
       </c>
+      <c r="O36">
+        <v>2495</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -15175,8 +15934,11 @@
       <c r="N37">
         <v>64</v>
       </c>
+      <c r="O37">
+        <v>70</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -15192,8 +15954,11 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -15227,8 +15992,11 @@
       <c r="L39">
         <v>67</v>
       </c>
+      <c r="M39">
+        <v>86</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -15253,8 +16021,11 @@
       <c r="I40">
         <v>19</v>
       </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -15294,8 +16065,11 @@
       <c r="N41">
         <v>66</v>
       </c>
+      <c r="O41">
+        <v>68</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -15335,8 +16109,11 @@
       <c r="N42">
         <v>112</v>
       </c>
+      <c r="O42">
+        <v>152</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -15361,8 +16138,11 @@
       <c r="I43">
         <v>5</v>
       </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -15399,8 +16179,11 @@
       <c r="M44">
         <v>23</v>
       </c>
+      <c r="N44">
+        <v>33</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -15440,8 +16223,11 @@
       <c r="N45">
         <v>47</v>
       </c>
+      <c r="O45">
+        <v>47</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -15478,8 +16264,11 @@
       <c r="M46">
         <v>11</v>
       </c>
+      <c r="N46">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -15519,8 +16308,11 @@
       <c r="N47">
         <v>74</v>
       </c>
+      <c r="O47">
+        <v>79</v>
+      </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -15560,8 +16352,11 @@
       <c r="N48">
         <v>110</v>
       </c>
+      <c r="O48">
+        <v>173</v>
+      </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -15595,8 +16390,11 @@
       <c r="L49">
         <v>51</v>
       </c>
+      <c r="M49">
+        <v>51</v>
+      </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -15624,8 +16422,11 @@
       <c r="J50">
         <v>12</v>
       </c>
+      <c r="K50">
+        <v>18</v>
+      </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -15642,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -15682,8 +16483,11 @@
       <c r="N52">
         <v>67</v>
       </c>
+      <c r="O52">
+        <v>77</v>
+      </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -15723,8 +16527,11 @@
       <c r="N53">
         <v>1076</v>
       </c>
+      <c r="O53">
+        <v>1014</v>
+      </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -15741,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -15778,8 +16585,11 @@
       <c r="M55">
         <v>72</v>
       </c>
+      <c r="N55">
+        <v>92</v>
+      </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -15798,8 +16608,11 @@
       <c r="G56">
         <v>11</v>
       </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -15835,2002 +16648,2222 @@
         <f t="shared" si="0"/>
         <v>1.9193199754765709E-2</v>
       </c>
+      <c r="O59" s="1">
+        <f t="shared" ref="O59" si="1">IF(O2=0,#N/A,O2/$B2*1000)</f>
+        <v>2.3307970424684001E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" ref="G60:N60" si="1">IF(G3=0,#N/A,G3/$B3*1000)</f>
+        <f t="shared" ref="G60:N60" si="2">IF(G3=0,#N/A,G3/$B3*1000)</f>
         <v>1.019745328801585E-3</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2236943945619022E-3</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4473887891238045E-3</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9145229070491929E-3</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9540135646523642E-3</v>
       </c>
-      <c r="L60" s="1" t="e">
-        <f t="shared" si="1"/>
+      <c r="L60" s="1">
+        <f t="shared" si="2"/>
+        <v>9.381657024974583E-3</v>
+      </c>
+      <c r="M60" s="1" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="M60" s="1" t="e">
-        <f t="shared" si="1"/>
+      <c r="N60" s="1" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="N60" s="1" t="e">
-        <f t="shared" si="1"/>
+      <c r="O60" s="1" t="e">
+        <f t="shared" ref="O60" si="3">IF(O3=0,#N/A,O3/$B3*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="1" t="e">
-        <f t="shared" ref="G61:N61" si="2">IF(G4=0,#N/A,G4/$B4*1000)</f>
+      <c r="G61" s="1">
+        <f t="shared" ref="G61:N61" si="4">IF(G4=0,#N/A,G4/$B4*1000)</f>
+        <v>8.2018194369450955E-3</v>
+      </c>
+      <c r="H61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="I61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="J61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="J61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="K61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="K61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="L61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="L61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="M61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="M61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="N61" s="1" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="N61" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="O61" s="1" t="e">
+        <f t="shared" ref="O61" si="5">IF(O4=0,#N/A,O4/$B4*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" ref="G62:N62" si="3">IF(G5=0,#N/A,G5/$B5*1000)</f>
+        <f t="shared" ref="G62:N62" si="6">IF(G5=0,#N/A,G5/$B5*1000)</f>
         <v>8.2432109944650955E-4</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2364816491697644E-3</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2364816491697644E-3</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2364816491697644E-3</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6486421988930191E-3</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7860290488007709E-3</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4729632983395288E-3</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7477369981550323E-3</v>
       </c>
+      <c r="O62" s="1">
+        <f t="shared" ref="O62" si="7">IF(O5=0,#N/A,O5/$B5*1000)</f>
+        <v>3.7094449475092929E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" ref="G63:N63" si="4">IF(G6=0,#N/A,G6/$B6*1000)</f>
+        <f t="shared" ref="G63:N63" si="8">IF(G6=0,#N/A,G6/$B6*1000)</f>
         <v>1.9882006916287476E-3</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9882006916287476E-3</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.9764013832574953E-3</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3018685110099934E-3</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.2900692026387397E-3</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.2900692026387397E-3</v>
       </c>
-      <c r="M63" s="1" t="e">
-        <f t="shared" si="4"/>
+      <c r="M63" s="1">
+        <f t="shared" si="8"/>
+        <v>1.093510380395811E-2</v>
+      </c>
+      <c r="N63" s="1" t="e">
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="N63" s="1" t="e">
-        <f t="shared" si="4"/>
+      <c r="O63" s="1" t="e">
+        <f t="shared" ref="O63" si="9">IF(O6=0,#N/A,O6/$B6*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" ref="G64:N64" si="5">IF(G7=0,#N/A,G7/$B7*1000)</f>
+        <f t="shared" ref="G64:N64" si="10">IF(G7=0,#N/A,G7/$B7*1000)</f>
         <v>3.6444418730882341E-3</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.4796264690042872E-3</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.593205930225692E-3</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.1370320014644585E-3</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.6049322003472189E-3</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.0781473874552692E-2</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4096903634098238E-2</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7665419634830468E-2</v>
       </c>
+      <c r="O64" s="1">
+        <f t="shared" ref="O64" si="11">IF(O7=0,#N/A,O7/$B7*1000)</f>
+        <v>1.9006776713119889E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" ref="G65:N65" si="6">IF(G8=0,#N/A,G8/$B8*1000)</f>
+        <f t="shared" ref="G65:N65" si="12">IF(G8=0,#N/A,G8/$B8*1000)</f>
         <v>2.6047382620074961E-3</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.9040733938836585E-3</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.8142147860224883E-3</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8.5088116558911537E-3</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.7538570964183806E-2</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2748047488198798E-2</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.7783874794746626E-2</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.7783874794746626E-2</v>
       </c>
+      <c r="O65" s="1">
+        <f t="shared" ref="O65" si="13">IF(O8=0,#N/A,O8/$B8*1000)</f>
+        <v>3.1951456013958615E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:N66" si="7">IF(G9=0,#N/A,G9/$B9*1000)</f>
+        <f t="shared" ref="G66:N66" si="14">IF(G9=0,#N/A,G9/$B9*1000)</f>
         <v>1.4024116431580404E-3</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3.0853056149476887E-3</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.1706112298953774E-3</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>6.731575887158594E-3</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8.4144698589482415E-3</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1.9072798346949346E-2</v>
       </c>
-      <c r="M66" s="1" t="e">
-        <f t="shared" si="7"/>
+      <c r="M66" s="1">
+        <f t="shared" si="14"/>
+        <v>1.9072798346949346E-2</v>
+      </c>
+      <c r="N66" s="1" t="e">
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="N66" s="1" t="e">
-        <f t="shared" si="7"/>
+      <c r="O66" s="1" t="e">
+        <f t="shared" ref="O66" si="15">IF(O9=0,#N/A,O9/$B9*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:N67" si="8">IF(G10=0,#N/A,G10/$B10*1000)</f>
+        <f t="shared" ref="G67:N67" si="16">IF(G10=0,#N/A,G10/$B10*1000)</f>
         <v>6.1616572393310897E-3</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.1886001125529382E-3</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.2155429857747875E-3</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.6431085971549575E-2</v>
       </c>
-      <c r="K67" s="1" t="e">
-        <f t="shared" si="8"/>
+      <c r="K67" s="1">
+        <f t="shared" si="16"/>
+        <v>1.951191459121512E-2</v>
+      </c>
+      <c r="L67" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="L67" s="1" t="e">
-        <f t="shared" si="8"/>
+      <c r="M67" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="M67" s="1" t="e">
-        <f t="shared" si="8"/>
+      <c r="N67" s="1" t="e">
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="N67" s="1" t="e">
-        <f t="shared" si="8"/>
+      <c r="O67" s="1" t="e">
+        <f t="shared" ref="O67" si="17">IF(O10=0,#N/A,O10/$B10*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" ref="G68:N68" si="9">IF(G11=0,#N/A,G11/$B11*1000)</f>
+        <f t="shared" ref="G68:N68" si="18">IF(G11=0,#N/A,G11/$B11*1000)</f>
         <v>7.0846717459039973E-3</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.4169343491807995E-2</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.4169343491807995E-2</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.4169343491807995E-2</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.4169343491807995E-2</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.2670949586892791E-2</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.1172555681977583E-2</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.1172555681977583E-2</v>
       </c>
+      <c r="O68" s="1">
+        <f t="shared" ref="O68" si="19">IF(O11=0,#N/A,O11/$B11*1000)</f>
+        <v>4.3924964824604777E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:N69" si="10">IF(G12=0,#N/A,G12/$B12*1000)</f>
+        <f t="shared" ref="G69:N69" si="20">IF(G12=0,#N/A,G12/$B12*1000)</f>
         <v>6.9839760119979114E-4</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.3036755222396103E-3</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.6295944027995128E-3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.327992003999304E-3</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.5385478460789421E-3</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5.3543816091983993E-3</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.2167752123978423E-3</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.0056925457276994E-2</v>
       </c>
+      <c r="O69" s="1">
+        <f t="shared" ref="O69" si="21">IF(O12=0,#N/A,O12/$B12*1000)</f>
+        <v>1.461978978511563E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" ref="G70:N70" si="11">IF(G13=0,#N/A,G13/$B13*1000)</f>
+        <f t="shared" ref="G70:N70" si="22">IF(G13=0,#N/A,G13/$B13*1000)</f>
         <v>1.6011418213251936E-3</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.166250699439968E-3</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>2.9197292035929999E-3</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>3.9557621468034191E-3</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.2161976592625158E-3</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9.3242964888937737E-3</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.1396362375314613E-2</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>1.3750982700792837E-2</v>
       </c>
+      <c r="O70" s="1">
+        <f t="shared" ref="O70" si="23">IF(O13=0,#N/A,O13/$B13*1000)</f>
+        <v>1.8742777790806676E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="1" t="e">
-        <f t="shared" ref="G71:N71" si="12">IF(G14=0,#N/A,G14/$B14*1000)</f>
+      <c r="G71" s="1">
+        <f t="shared" ref="G71:N71" si="24">IF(G14=0,#N/A,G14/$B14*1000)</f>
+        <v>3.0723476422804194E-2</v>
+      </c>
+      <c r="H71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="I71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="I71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="J71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="J71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="K71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="K71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="L71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="L71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="M71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="M71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="N71" s="1" t="e">
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="N71" s="1" t="e">
-        <f t="shared" si="12"/>
+      <c r="O71" s="1" t="e">
+        <f t="shared" ref="O71" si="25">IF(O14=0,#N/A,O14/$B14*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" ref="G72:N72" si="13">IF(G15=0,#N/A,G15/$B15*1000)</f>
+        <f t="shared" ref="G72:N72" si="26">IF(G15=0,#N/A,G15/$B15*1000)</f>
         <v>4.2376712019165574E-3</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>4.9439497355693168E-3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>7.0627853365275951E-3</v>
       </c>
-      <c r="J72" s="1" t="e">
-        <f t="shared" si="13"/>
+      <c r="J72" s="1">
+        <f t="shared" si="26"/>
+        <v>9.8878994711386337E-3</v>
+      </c>
+      <c r="K72" s="1" t="e">
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="K72" s="1" t="e">
-        <f t="shared" si="13"/>
+      <c r="L72" s="1" t="e">
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="L72" s="1" t="e">
-        <f t="shared" si="13"/>
+      <c r="M72" s="1" t="e">
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="M72" s="1" t="e">
-        <f t="shared" si="13"/>
+      <c r="N72" s="1" t="e">
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
-      <c r="N72" s="1" t="e">
-        <f t="shared" si="13"/>
+      <c r="O72" s="1" t="e">
+        <f t="shared" ref="O72" si="27">IF(O15=0,#N/A,O15/$B15*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" ref="G73:N73" si="14">IF(G16=0,#N/A,G16/$B16*1000)</f>
+        <f t="shared" ref="G73:N73" si="28">IF(G16=0,#N/A,G16/$B16*1000)</f>
         <v>2.7978836807838548E-3</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>2.7978836807838548E-3</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>4.4766138892541676E-3</v>
       </c>
-      <c r="J73" s="1" t="e">
-        <f t="shared" si="14"/>
+      <c r="J73" s="1">
+        <f t="shared" si="28"/>
+        <v>5.0361906254109395E-3</v>
+      </c>
+      <c r="K73" s="1" t="e">
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
-      <c r="K73" s="1" t="e">
-        <f t="shared" si="14"/>
+      <c r="L73" s="1" t="e">
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
-      <c r="L73" s="1" t="e">
-        <f t="shared" si="14"/>
+      <c r="M73" s="1" t="e">
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
-      <c r="M73" s="1" t="e">
-        <f t="shared" si="14"/>
+      <c r="N73" s="1" t="e">
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
-      <c r="N73" s="1" t="e">
-        <f t="shared" si="14"/>
+      <c r="O73" s="1" t="e">
+        <f t="shared" ref="O73" si="29">IF(O16=0,#N/A,O16/$B16*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" ref="G74:N74" si="15">IF(G17=0,#N/A,G17/$B17*1000)</f>
+        <f t="shared" ref="G74:N74" si="30">IF(G17=0,#N/A,G17/$B17*1000)</f>
         <v>9.4698307370345586E-4</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1.9728814035488663E-3</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>2.5252881965425488E-3</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>3.6301017825299139E-3</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>5.0505763930850977E-3</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>7.3391188212017832E-3</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>8.2861018949052373E-3</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1.2705356238854701E-2</v>
       </c>
+      <c r="O74" s="1">
+        <f t="shared" ref="O74" si="31">IF(O17=0,#N/A,O17/$B17*1000)</f>
+        <v>1.2784271494996653E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" ref="G75:N75" si="16">IF(G18=0,#N/A,G18/$B18*1000)</f>
+        <f t="shared" ref="G75:N75" si="32">IF(G18=0,#N/A,G18/$B18*1000)</f>
         <v>8.912366041568167E-4</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1.6339337742874971E-3</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1.9310126423397692E-3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>1.9310126423397692E-3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>2.376630944418178E-3</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>2.9707886805227222E-3</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>3.7134858506534026E-3</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>4.4561830207840835E-3</v>
       </c>
+      <c r="O75" s="1">
+        <f t="shared" ref="O75" si="33">IF(O18=0,#N/A,O18/$B18*1000)</f>
+        <v>5.7930379270193086E-3</v>
+      </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:N76" si="17">IF(G19=0,#N/A,G19/$B19*1000)</f>
+        <f t="shared" ref="G76:N76" si="34">IF(G19=0,#N/A,G19/$B19*1000)</f>
         <v>2.535601428811405E-3</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>4.1203523218185335E-3</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.0712028576228099E-3</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.388153036224236E-3</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.388153036224236E-3</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>5.7051032148256612E-3</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>7.2898541078327897E-3</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>7.2898541078327897E-3</v>
       </c>
+      <c r="O76" s="1">
+        <f t="shared" ref="O76" si="35">IF(O19=0,#N/A,O19/$B19*1000)</f>
+        <v>9.1915551794413443E-3</v>
+      </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" ref="G77:N77" si="18">IF(G20=0,#N/A,G20/$B20*1000)</f>
+        <f t="shared" ref="G77:N77" si="36">IF(G20=0,#N/A,G20/$B20*1000)</f>
         <v>1.7162585289467595E-3</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>2.7460136463148153E-3</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>2.7460136463148153E-3</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>3.7757687636828709E-3</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>6.1785307042083347E-3</v>
       </c>
-      <c r="L77" s="1" t="e">
-        <f t="shared" si="18"/>
+      <c r="L77" s="1">
+        <f t="shared" si="36"/>
+        <v>6.1785307042083347E-3</v>
+      </c>
+      <c r="M77" s="1" t="e">
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="M77" s="1" t="e">
-        <f t="shared" si="18"/>
+      <c r="N77" s="1" t="e">
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="N77" s="1" t="e">
-        <f t="shared" si="18"/>
+      <c r="O77" s="1" t="e">
+        <f t="shared" ref="O77" si="37">IF(O20=0,#N/A,O20/$B20*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78:N78" si="19">IF(G21=0,#N/A,G21/$B21*1000)</f>
+        <f t="shared" ref="G78:N78" si="38">IF(G21=0,#N/A,G21/$B21*1000)</f>
         <v>1.342981010472342E-3</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>1.7906413472964561E-3</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>2.2383016841205699E-3</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>3.1336223577687981E-3</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>3.1336223577687981E-3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>4.4766033682411398E-3</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>4.700433536653198E-3</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>5.8195843787134825E-3</v>
       </c>
+      <c r="O78" s="1">
+        <f t="shared" ref="O78" si="39">IF(O21=0,#N/A,O21/$B21*1000)</f>
+        <v>6.0434145471255397E-3</v>
+      </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" ref="G79:N79" si="20">IF(G22=0,#N/A,G22/$B22*1000)</f>
+        <f t="shared" ref="G79:N79" si="40">IF(G22=0,#N/A,G22/$B22*1000)</f>
         <v>1.2906573188659254E-3</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>4.0870815097420968E-3</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>7.743943913195551E-3</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1.6563435592112707E-2</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>1.9574969336133202E-2</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>2.9254899227627636E-2</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="40"/>
         <v>4.2161472416286885E-2</v>
       </c>
-      <c r="N79" s="1" t="e">
-        <f t="shared" si="20"/>
+      <c r="N79" s="1">
+        <f t="shared" si="40"/>
+        <v>5.5283155158090465E-2</v>
+      </c>
+      <c r="O79" s="1" t="e">
+        <f t="shared" ref="O79" si="41">IF(O22=0,#N/A,O22/$B22*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" ref="G80:N80" si="21">IF(G23=0,#N/A,G23/$B23*1000)</f>
+        <f t="shared" ref="G80:N80" si="42">IF(G23=0,#N/A,G23/$B23*1000)</f>
         <v>8.9271632748405758E-3</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>1.2646814639357483E-2</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>2.3805768732908201E-2</v>
       </c>
-      <c r="J80" s="1" t="e">
-        <f t="shared" si="21"/>
+      <c r="J80" s="1">
+        <f t="shared" si="42"/>
+        <v>3.1245071461942012E-2</v>
+      </c>
+      <c r="K80" s="1" t="e">
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
-      <c r="K80" s="1" t="e">
-        <f t="shared" si="21"/>
+      <c r="L80" s="1" t="e">
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
-      <c r="L80" s="1" t="e">
-        <f t="shared" si="21"/>
+      <c r="M80" s="1" t="e">
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
-      <c r="M80" s="1" t="e">
-        <f t="shared" si="21"/>
+      <c r="N80" s="1" t="e">
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
-      <c r="N80" s="1" t="e">
-        <f t="shared" si="21"/>
+      <c r="O80" s="1" t="e">
+        <f t="shared" ref="O80" si="43">IF(O23=0,#N/A,O23/$B23*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81:N81" si="22">IF(G24=0,#N/A,G24/$B24*1000)</f>
+        <f t="shared" ref="G81:N81" si="44">IF(G24=0,#N/A,G24/$B24*1000)</f>
         <v>1.323258922073282E-3</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>1.4886662873324422E-3</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>1.9848883831099229E-3</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>2.9773325746648843E-3</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>4.3005914967381665E-3</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>5.293035688293128E-3</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>6.781701975625571E-3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>9.9244419155496144E-3</v>
       </c>
+      <c r="O81" s="1">
+        <f t="shared" ref="O81" si="45">IF(O24=0,#N/A,O24/$B24*1000)</f>
+        <v>1.4059626047028623E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" ref="G82:N82" si="23">IF(G25=0,#N/A,G25/$B25*1000)</f>
+        <f t="shared" ref="G82:N82" si="46">IF(G25=0,#N/A,G25/$B25*1000)</f>
         <v>1.3347836047369149E-2</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>1.3783091570652927E-2</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>1.5669198838215957E-2</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>1.7845476454634839E-2</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.0021754071053725E-2</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.3793968606179789E-2</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>2.8581779362301329E-2</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="46"/>
         <v>3.1628568025287768E-2</v>
       </c>
+      <c r="O82" s="1">
+        <f t="shared" ref="O82" si="47">IF(O25=0,#N/A,O25/$B25*1000)</f>
+        <v>3.1628568025287768E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" ref="G83:N83" si="24">IF(G26=0,#N/A,G26/$B26*1000)</f>
+        <f t="shared" ref="G83:N83" si="48">IF(G26=0,#N/A,G26/$B26*1000)</f>
         <v>1.6021056474524468E-3</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>2.503290074144448E-3</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>3.3043428978706715E-3</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>5.3069749571862303E-3</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>6.5085541927755652E-3</v>
       </c>
-      <c r="L83" s="1" t="e">
-        <f t="shared" si="24"/>
+      <c r="L83" s="1">
+        <f t="shared" si="48"/>
+        <v>8.3109230461595671E-3</v>
+      </c>
+      <c r="M83" s="1" t="e">
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
-      <c r="M83" s="1" t="e">
-        <f t="shared" si="24"/>
+      <c r="N83" s="1" t="e">
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
-      <c r="N83" s="1" t="e">
-        <f t="shared" si="24"/>
+      <c r="O83" s="1" t="e">
+        <f t="shared" ref="O83" si="49">IF(O26=0,#N/A,O26/$B26*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84:N84" si="25">IF(G27=0,#N/A,G27/$B27*1000)</f>
+        <f t="shared" ref="G84:N84" si="50">IF(G27=0,#N/A,G27/$B27*1000)</f>
         <v>8.8658267064233975E-4</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>1.5958488071562116E-3</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>2.4824314777985514E-3</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>3.7236472166978273E-3</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>6.2060786944963791E-3</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>9.5750928429372689E-3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>1.0638992047708077E-2</v>
       </c>
-      <c r="N84" s="1" t="e">
-        <f t="shared" si="25"/>
+      <c r="N84" s="1">
+        <f t="shared" si="50"/>
+        <v>1.3653373127892032E-2</v>
+      </c>
+      <c r="O84" s="1" t="e">
+        <f t="shared" ref="O84" si="51">IF(O27=0,#N/A,O27/$B27*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" ref="G85:N85" si="26">IF(G28=0,#N/A,G28/$B28*1000)</f>
+        <f t="shared" ref="G85:N85" si="52">IF(G28=0,#N/A,G28/$B28*1000)</f>
         <v>2.0160280953675372E-3</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>3.360046825612562E-3</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>4.3680608732963311E-3</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>7.056098333786379E-3</v>
       </c>
-      <c r="K85" s="1" t="e">
-        <f t="shared" si="26"/>
+      <c r="K85" s="1">
+        <f t="shared" si="52"/>
+        <v>1.1424159207082708E-2</v>
+      </c>
+      <c r="L85" s="1" t="e">
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
-      <c r="L85" s="1" t="e">
-        <f t="shared" si="26"/>
+      <c r="M85" s="1" t="e">
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
-      <c r="M85" s="1" t="e">
-        <f t="shared" si="26"/>
+      <c r="N85" s="1" t="e">
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
-      <c r="N85" s="1" t="e">
-        <f t="shared" si="26"/>
+      <c r="O85" s="1" t="e">
+        <f t="shared" ref="O85" si="53">IF(O28=0,#N/A,O28/$B28*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" ref="G86:N86" si="27">IF(G29=0,#N/A,G29/$B29*1000)</f>
+        <f t="shared" ref="G86:N86" si="54">IF(G29=0,#N/A,G29/$B29*1000)</f>
         <v>8.1467350818616527E-4</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>9.7760820982339849E-4</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="54"/>
         <v>1.7922817180095636E-3</v>
       </c>
-      <c r="J86" s="1" t="e">
-        <f t="shared" si="27"/>
+      <c r="J86" s="1">
+        <f t="shared" si="54"/>
+        <v>2.9328246294701953E-3</v>
+      </c>
+      <c r="K86" s="1" t="e">
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
-      <c r="K86" s="1" t="e">
-        <f t="shared" si="27"/>
+      <c r="L86" s="1" t="e">
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
-      <c r="L86" s="1" t="e">
-        <f t="shared" si="27"/>
+      <c r="M86" s="1" t="e">
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="1" t="e">
-        <f t="shared" si="27"/>
+      <c r="N86" s="1" t="e">
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
-      <c r="N86" s="1" t="e">
-        <f t="shared" si="27"/>
+      <c r="O86" s="1" t="e">
+        <f t="shared" ref="O86" si="55">IF(O29=0,#N/A,O29/$B29*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87:N87" si="28">IF(G30=0,#N/A,G30/$B30*1000)</f>
+        <f t="shared" ref="G87:N87" si="56">IF(G30=0,#N/A,G30/$B30*1000)</f>
         <v>4.6782400086828133E-3</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>6.5495360121559393E-3</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>6.5495360121559393E-3</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="56"/>
         <v>8.4208320156290636E-3</v>
       </c>
-      <c r="K87" s="1" t="e">
-        <f t="shared" si="28"/>
+      <c r="K87" s="1">
+        <f t="shared" si="56"/>
+        <v>1.029212801910219E-2</v>
+      </c>
+      <c r="L87" s="1" t="e">
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
-      <c r="L87" s="1" t="e">
-        <f t="shared" si="28"/>
+      <c r="M87" s="1" t="e">
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
-      <c r="M87" s="1" t="e">
-        <f t="shared" si="28"/>
+      <c r="N87" s="1" t="e">
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
-      <c r="N87" s="1" t="e">
-        <f t="shared" si="28"/>
+      <c r="O87" s="1" t="e">
+        <f t="shared" ref="O87" si="57">IF(O30=0,#N/A,O30/$B30*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" ref="G88:N88" si="29">IF(G31=0,#N/A,G31/$B31*1000)</f>
+        <f t="shared" ref="G88:N88" si="58">IF(G31=0,#N/A,G31/$B31*1000)</f>
         <v>2.5847701208845286E-3</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>5.1695402417690573E-3</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>6.7204023142997758E-3</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>7.2373563384766819E-3</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>8.7882184110073987E-3</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>9.305172435184304E-3</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>1.0856034507715022E-2</v>
       </c>
-      <c r="N88" s="1" t="e">
-        <f t="shared" si="29"/>
+      <c r="N88" s="1">
+        <f t="shared" si="58"/>
+        <v>1.2406896580245739E-2</v>
+      </c>
+      <c r="O88" s="1" t="e">
+        <f t="shared" ref="O88" si="59">IF(O31=0,#N/A,O31/$B31*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" ref="G89:N89" si="30">IF(G32=0,#N/A,G32/$B32*1000)</f>
+        <f t="shared" ref="G89:N89" si="60">IF(G32=0,#N/A,G32/$B32*1000)</f>
         <v>2.2726121663967673E-3</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>4.5452243327935345E-3</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>5.5192009755350054E-3</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>6.8178364991903009E-3</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>7.7918131419317726E-3</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>1.4609649641122073E-2</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>1.8180897331174138E-2</v>
       </c>
-      <c r="N89" s="1" t="e">
-        <f t="shared" si="30"/>
+      <c r="N89" s="1">
+        <f t="shared" si="60"/>
+        <v>1.7856238450260312E-2</v>
+      </c>
+      <c r="O89" s="1" t="e">
+        <f t="shared" ref="O89" si="61">IF(O32=0,#N/A,O32/$B32*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" ref="G90:N90" si="31">IF(G33=0,#N/A,G33/$B33*1000)</f>
+        <f t="shared" ref="G90:N90" si="62">IF(G33=0,#N/A,G33/$B33*1000)</f>
         <v>3.6772520042862053E-3</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>4.4127024051434458E-3</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>4.4127024051434458E-3</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>5.1481528060006868E-3</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>9.5608552111441335E-3</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>1.2502656814573097E-2</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>1.9121710422288267E-2</v>
       </c>
-      <c r="N90" s="1" t="e">
-        <f t="shared" si="31"/>
+      <c r="N90" s="1">
+        <f t="shared" si="62"/>
+        <v>1.9121710422288267E-2</v>
+      </c>
+      <c r="O90" s="1" t="e">
+        <f t="shared" ref="O90" si="63">IF(O33=0,#N/A,O33/$B33*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" ref="G91:N91" si="32">IF(G34=0,#N/A,G34/$B34*1000)</f>
+        <f t="shared" ref="G91:N91" si="64">IF(G34=0,#N/A,G34/$B34*1000)</f>
         <v>1.6887727013270375E-3</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>2.5894514753681242E-3</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>3.2649605558989392E-3</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>3.2649605558989392E-3</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>7.7683544261043739E-3</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>1.1033314982003313E-2</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>2.0040102722414181E-2</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="64"/>
         <v>3.0060154083621268E-2</v>
       </c>
+      <c r="O91" s="1">
+        <f t="shared" ref="O91" si="65">IF(O34=0,#N/A,O34/$B34*1000)</f>
+        <v>3.0060154083621268E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" ref="G92:N92" si="33">IF(G35=0,#N/A,G35/$B35*1000)</f>
+        <f t="shared" ref="G92:N92" si="66">IF(G35=0,#N/A,G35/$B35*1000)</f>
         <v>2.3845530560670423E-3</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="66"/>
         <v>4.7691061121340845E-3</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="66"/>
         <v>4.7691061121340845E-3</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="66"/>
         <v>6.1998379457743093E-3</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="66"/>
         <v>8.1074803906279434E-3</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="66"/>
         <v>1.0968944057908395E-2</v>
       </c>
-      <c r="M92" s="1" t="e">
-        <f t="shared" si="33"/>
+      <c r="M92" s="1">
+        <f t="shared" si="66"/>
+        <v>1.0968944057908395E-2</v>
+      </c>
+      <c r="N92" s="1" t="e">
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
-      <c r="N92" s="1" t="e">
-        <f t="shared" si="33"/>
+      <c r="O92" s="1" t="e">
+        <f t="shared" ref="O92" si="67">IF(O35=0,#N/A,O35/$B35*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" ref="G93:N93" si="34">IF(G36=0,#N/A,G36/$B36*1000)</f>
+        <f t="shared" ref="G93:N93" si="68">IF(G36=0,#N/A,G36/$B36*1000)</f>
         <v>8.8929733738722701E-3</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>1.1308983481224852E-2</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>1.686066628109887E-2</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>2.1641282025434829E-2</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>2.6987346943832032E-2</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>3.7628072310257235E-2</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>4.9708122847020142E-2</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="68"/>
         <v>8.7696026449861797E-2</v>
       </c>
+      <c r="O93" s="1">
+        <f t="shared" ref="O93" si="69">IF(O36=0,#N/A,O36/$B36*1000)</f>
+        <v>0.12825415357116365</v>
+      </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" ref="G94:N94" si="35">IF(G37=0,#N/A,G37/$B37*1000)</f>
+        <f t="shared" ref="G94:N94" si="70">IF(G37=0,#N/A,G37/$B37*1000)</f>
         <v>6.6742409767122388E-4</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>6.6742409767122388E-4</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>1.4301944950097655E-3</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>1.6208870943444009E-3</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>2.2883111920156247E-3</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>3.1464278890214834E-3</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>3.6231593873580722E-3</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="70"/>
         <v>6.1021631787083318E-3</v>
       </c>
+      <c r="O94" s="1">
+        <f t="shared" ref="O94" si="71">IF(O37=0,#N/A,O37/$B37*1000)</f>
+        <v>6.6742409767122386E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="G95" s="1" t="e">
-        <f t="shared" ref="G95:N95" si="36">IF(G38=0,#N/A,G38/$B38*1000)</f>
+      <c r="G95" s="1">
+        <f t="shared" ref="G95:N95" si="72">IF(G38=0,#N/A,G38/$B38*1000)</f>
+        <v>7.8733751322070909E-3</v>
+      </c>
+      <c r="H95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="H95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="I95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="I95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="J95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="J95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="K95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="K95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="L95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="L95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="M95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="M95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="N95" s="1" t="e">
+        <f t="shared" si="72"/>
         <v>#N/A</v>
       </c>
-      <c r="N95" s="1" t="e">
-        <f t="shared" si="36"/>
+      <c r="O95" s="1" t="e">
+        <f t="shared" ref="O95" si="73">IF(O38=0,#N/A,O38/$B38*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" ref="G96:N96" si="37">IF(G39=0,#N/A,G39/$B39*1000)</f>
+        <f t="shared" ref="G96:N96" si="74">IF(G39=0,#N/A,G39/$B39*1000)</f>
         <v>4.2774892848893411E-4</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>1.1121472140712288E-3</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>2.2242944281424576E-3</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>3.1653420708181125E-3</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>4.2774892848893411E-3</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="74"/>
         <v>5.7318356417517171E-3</v>
       </c>
-      <c r="M96" s="1" t="e">
-        <f t="shared" si="37"/>
+      <c r="M96" s="1">
+        <f t="shared" si="74"/>
+        <v>7.3572815700096673E-3</v>
+      </c>
+      <c r="N96" s="1" t="e">
+        <f t="shared" si="74"/>
         <v>#N/A</v>
       </c>
-      <c r="N96" s="1" t="e">
-        <f t="shared" si="37"/>
+      <c r="O96" s="1" t="e">
+        <f t="shared" ref="O96" si="75">IF(O39=0,#N/A,O39/$B39*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" ref="G97:N97" si="38">IF(G40=0,#N/A,G40/$B40*1000)</f>
+        <f t="shared" ref="G97:N97" si="76">IF(G40=0,#N/A,G40/$B40*1000)</f>
         <v>1.7690298968579756E-3</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="76"/>
         <v>2.527185566939965E-3</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="76"/>
         <v>4.8016525771859336E-3</v>
       </c>
-      <c r="J97" s="1" t="e">
-        <f t="shared" si="38"/>
+      <c r="J97" s="1">
+        <f t="shared" si="76"/>
+        <v>4.8016525771859336E-3</v>
+      </c>
+      <c r="K97" s="1" t="e">
+        <f t="shared" si="76"/>
         <v>#N/A</v>
       </c>
-      <c r="K97" s="1" t="e">
-        <f t="shared" si="38"/>
+      <c r="L97" s="1" t="e">
+        <f t="shared" si="76"/>
         <v>#N/A</v>
       </c>
-      <c r="L97" s="1" t="e">
-        <f t="shared" si="38"/>
+      <c r="M97" s="1" t="e">
+        <f t="shared" si="76"/>
         <v>#N/A</v>
       </c>
-      <c r="M97" s="1" t="e">
-        <f t="shared" si="38"/>
+      <c r="N97" s="1" t="e">
+        <f t="shared" si="76"/>
         <v>#N/A</v>
       </c>
-      <c r="N97" s="1" t="e">
-        <f t="shared" si="38"/>
+      <c r="O97" s="1" t="e">
+        <f t="shared" ref="O97" si="77">IF(O40=0,#N/A,O40/$B40*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" ref="G98:N98" si="39">IF(G41=0,#N/A,G41/$B41*1000)</f>
+        <f t="shared" ref="G98:N98" si="78">IF(G41=0,#N/A,G41/$B41*1000)</f>
         <v>3.5564095153396242E-3</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>4.5047853860968575E-3</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>5.6902552245433986E-3</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>7.1128190306792485E-3</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>7.5870069660578642E-3</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>8.5353828368150975E-3</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>9.2466647398830228E-3</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="78"/>
         <v>1.5648201867494344E-2</v>
       </c>
+      <c r="O98" s="1">
+        <f t="shared" ref="O98" si="79">IF(O41=0,#N/A,O41/$B41*1000)</f>
+        <v>1.6122389802872963E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" ref="G99:N99" si="40">IF(G42=0,#N/A,G42/$B42*1000)</f>
+        <f t="shared" ref="G99:N99" si="80">IF(G42=0,#N/A,G42/$B42*1000)</f>
         <v>9.3735434392265137E-4</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>1.2498057918968685E-3</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>1.7184829638581941E-3</v>
       </c>
       <c r="J99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>3.2026273417357256E-3</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>3.6713045136970513E-3</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>5.1554488915745824E-3</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>6.0146903735036799E-3</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="80"/>
         <v>8.748640543278079E-3</v>
       </c>
+      <c r="O99" s="1">
+        <f t="shared" ref="O99" si="81">IF(O42=0,#N/A,O42/$B42*1000)</f>
+        <v>1.1873155023020252E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:N100" si="41">IF(G43=0,#N/A,G43/$B43*1000)</f>
+        <f t="shared" ref="G100:N100" si="82">IF(G43=0,#N/A,G43/$B43*1000)</f>
         <v>1.5655851812978951E-3</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="82"/>
         <v>1.5655851812978951E-3</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="82"/>
         <v>1.5655851812978951E-3</v>
       </c>
-      <c r="J100" s="1" t="e">
-        <f t="shared" si="41"/>
+      <c r="J100" s="1">
+        <f t="shared" si="82"/>
+        <v>1.5655851812978951E-3</v>
+      </c>
+      <c r="K100" s="1" t="e">
+        <f t="shared" si="82"/>
         <v>#N/A</v>
       </c>
-      <c r="K100" s="1" t="e">
-        <f t="shared" si="41"/>
+      <c r="L100" s="1" t="e">
+        <f t="shared" si="82"/>
         <v>#N/A</v>
       </c>
-      <c r="L100" s="1" t="e">
-        <f t="shared" si="41"/>
+      <c r="M100" s="1" t="e">
+        <f t="shared" si="82"/>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="1" t="e">
-        <f t="shared" si="41"/>
+      <c r="N100" s="1" t="e">
+        <f t="shared" si="82"/>
         <v>#N/A</v>
       </c>
-      <c r="N100" s="1" t="e">
-        <f t="shared" si="41"/>
+      <c r="O100" s="1" t="e">
+        <f t="shared" ref="O100" si="83">IF(O43=0,#N/A,O43/$B43*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" ref="G101:N101" si="42">IF(G44=0,#N/A,G44/$B44*1000)</f>
+        <f t="shared" ref="G101:N101" si="84">IF(G44=0,#N/A,G44/$B44*1000)</f>
         <v>4.7198263859062209E-3</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>4.7198263859062209E-3</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>1.3215513880537419E-2</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>1.8879305543624884E-2</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>1.8879305543624884E-2</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>1.9823270820806128E-2</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="84"/>
         <v>2.1711201375168614E-2</v>
       </c>
-      <c r="N101" s="1" t="e">
-        <f t="shared" si="42"/>
+      <c r="N101" s="1">
+        <f t="shared" si="84"/>
+        <v>3.1150854146981054E-2</v>
+      </c>
+      <c r="O101" s="1" t="e">
+        <f t="shared" ref="O101" si="85">IF(O44=0,#N/A,O44/$B44*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" ref="G102:N102" si="43">IF(G45=0,#N/A,G45/$B45*1000)</f>
+        <f t="shared" ref="G102:N102" si="86">IF(G45=0,#N/A,G45/$B45*1000)</f>
         <v>1.35956279568063E-3</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>1.9422325652580432E-3</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>2.3306790783096517E-3</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>2.5249023348354561E-3</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>3.690241873990282E-3</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>5.4382511827225201E-3</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>6.409367465351542E-3</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="86"/>
         <v>9.1284930567128025E-3</v>
       </c>
+      <c r="O102" s="1">
+        <f t="shared" ref="O102" si="87">IF(O45=0,#N/A,O45/$B45*1000)</f>
+        <v>9.1284930567128025E-3</v>
+      </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" ref="G103:N103" si="44">IF(G46=0,#N/A,G46/$B46*1000)</f>
+        <f t="shared" ref="G103:N103" si="88">IF(G46=0,#N/A,G46/$B46*1000)</f>
         <v>9.0430324000547093E-3</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>9.0430324000547093E-3</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>9.0430324000547093E-3</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>1.0173411450061549E-2</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>1.0173411450061549E-2</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>1.1303790500068389E-2</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="88"/>
         <v>1.2434169550075227E-2</v>
       </c>
-      <c r="N103" s="1" t="e">
-        <f t="shared" si="44"/>
+      <c r="N103" s="1">
+        <f t="shared" si="88"/>
+        <v>1.2434169550075227E-2</v>
+      </c>
+      <c r="O103" s="1" t="e">
+        <f t="shared" ref="O103" si="89">IF(O46=0,#N/A,O46/$B46*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" ref="G104:N104" si="45">IF(G47=0,#N/A,G47/$B47*1000)</f>
+        <f t="shared" ref="G104:N104" si="90">IF(G47=0,#N/A,G47/$B47*1000)</f>
         <v>1.0250141525168343E-3</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>1.3178753389502156E-3</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>2.6357506779004312E-3</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>3.8071954236339567E-3</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>4.6857789829340994E-3</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>5.7107931354509348E-3</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>7.6143908472679133E-3</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="90"/>
         <v>1.0835863898035106E-2</v>
       </c>
+      <c r="O104" s="1">
+        <f t="shared" ref="O104" si="91">IF(O47=0,#N/A,O47/$B47*1000)</f>
+        <v>1.156801686411856E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" ref="G105:N105" si="46">IF(G48=0,#N/A,G48/$B48*1000)</f>
+        <f t="shared" ref="G105:N105" si="92">IF(G48=0,#N/A,G48/$B48*1000)</f>
         <v>4.4833954174387732E-4</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>7.2424079820164803E-4</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>9.3116674054497602E-4</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>1.4829692534605173E-3</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>1.9657964522616159E-3</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>2.4831113081199359E-3</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>2.9314508498638134E-3</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="92"/>
         <v>3.7936422762943471E-3</v>
       </c>
+      <c r="O105" s="1">
+        <f t="shared" ref="O105" si="93">IF(O48=0,#N/A,O48/$B48*1000)</f>
+        <v>5.966364670899291E-3</v>
+      </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" ref="G106:N106" si="47">IF(G49=0,#N/A,G49/$B49*1000)</f>
+        <f t="shared" ref="G106:N106" si="94">IF(G49=0,#N/A,G49/$B49*1000)</f>
         <v>1.5595962267752729E-3</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="94"/>
         <v>2.8072732081954911E-3</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="94"/>
         <v>3.1191924535505459E-3</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="94"/>
         <v>8.7337388699415281E-3</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="94"/>
         <v>1.2164850568847129E-2</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="94"/>
         <v>1.5907881513107784E-2</v>
       </c>
-      <c r="M106" s="1" t="e">
-        <f t="shared" si="47"/>
+      <c r="M106" s="1">
+        <f t="shared" si="94"/>
+        <v>1.5907881513107784E-2</v>
+      </c>
+      <c r="N106" s="1" t="e">
+        <f t="shared" si="94"/>
         <v>#N/A</v>
       </c>
-      <c r="N106" s="1" t="e">
-        <f t="shared" si="47"/>
+      <c r="O106" s="1" t="e">
+        <f t="shared" ref="O106" si="95">IF(O49=0,#N/A,O49/$B49*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" ref="G107:N107" si="48">IF(G50=0,#N/A,G50/$B50*1000)</f>
+        <f t="shared" ref="G107:N107" si="96">IF(G50=0,#N/A,G50/$B50*1000)</f>
         <v>8.0129617669542248E-3</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="96"/>
         <v>1.2820738827126759E-2</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="96"/>
         <v>1.9231108240690138E-2</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="96"/>
         <v>1.9231108240690138E-2</v>
       </c>
-      <c r="K107" s="1" t="e">
-        <f t="shared" si="48"/>
+      <c r="K107" s="1">
+        <f t="shared" si="96"/>
+        <v>2.8846662361035211E-2</v>
+      </c>
+      <c r="L107" s="1" t="e">
+        <f t="shared" si="96"/>
         <v>#N/A</v>
       </c>
-      <c r="L107" s="1" t="e">
-        <f t="shared" si="48"/>
+      <c r="M107" s="1" t="e">
+        <f t="shared" si="96"/>
         <v>#N/A</v>
       </c>
-      <c r="M107" s="1" t="e">
-        <f t="shared" si="48"/>
+      <c r="N107" s="1" t="e">
+        <f t="shared" si="96"/>
         <v>#N/A</v>
       </c>
-      <c r="N107" s="1" t="e">
-        <f t="shared" si="48"/>
+      <c r="O107" s="1" t="e">
+        <f t="shared" ref="O107" si="97">IF(O50=0,#N/A,O50/$B50*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="G108" s="1" t="e">
-        <f t="shared" ref="G108:N108" si="49">IF(G51=0,#N/A,G51/$B51*1000)</f>
+        <f t="shared" ref="G108:N108" si="98">IF(G51=0,#N/A,G51/$B51*1000)</f>
         <v>#N/A</v>
       </c>
       <c r="H108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="I108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="J108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="K108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="L108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="M108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
       <c r="N108" s="1" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="98"/>
         <v>#N/A</v>
       </c>
+      <c r="O108" s="1" t="e">
+        <f t="shared" ref="O108" si="99">IF(O51=0,#N/A,O51/$B51*1000)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" ref="G109:N109" si="50">IF(G52=0,#N/A,G52/$B52*1000)</f>
+        <f t="shared" ref="G109:N109" si="100">IF(G52=0,#N/A,G52/$B52*1000)</f>
         <v>8.2010244485426135E-4</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>1.0544174290983361E-3</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>1.9916773660746349E-3</v>
       </c>
       <c r="J109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>3.5147247636611199E-3</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>4.8034571770035313E-3</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>5.2720871454916803E-3</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>5.7407171139798293E-3</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="100"/>
         <v>7.8495519721765022E-3</v>
       </c>
+      <c r="O109" s="1">
+        <f t="shared" ref="O109" si="101">IF(O52=0,#N/A,O52/$B52*1000)</f>
+        <v>9.0211268933968747E-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" ref="G110:N110" si="51">IF(G53=0,#N/A,G53/$B53*1000)</f>
+        <f t="shared" ref="G110:N110" si="102">IF(G53=0,#N/A,G53/$B53*1000)</f>
         <v>3.5062869563630111E-2</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>4.806370884003229E-2</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>5.8044151112825883E-2</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>7.4590673828246842E-2</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>7.5115960263657022E-2</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>8.4439794492187872E-2</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>0.11871473440270271</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="102"/>
         <v>0.14130205112534083</v>
       </c>
+      <c r="O110" s="1">
+        <f t="shared" ref="O110" si="103">IF(O53=0,#N/A,O53/$B53*1000)</f>
+        <v>0.13316011137648293</v>
+      </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="G111" s="1" t="e">
-        <f t="shared" ref="G111:N111" si="52">IF(G54=0,#N/A,G54/$B54*1000)</f>
+        <f t="shared" ref="G111:N111" si="104">IF(G54=0,#N/A,G54/$B54*1000)</f>
         <v>#N/A</v>
       </c>
       <c r="H111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="I111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="J111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="K111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="L111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="M111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
       <c r="N111" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="104"/>
         <v>#N/A</v>
       </c>
+      <c r="O111" s="1" t="e">
+        <f t="shared" ref="O111" si="105">IF(O54=0,#N/A,O54/$B54*1000)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" ref="G112:N112" si="53">IF(G55=0,#N/A,G55/$B55*1000)</f>
+        <f t="shared" ref="G112:N112" si="106">IF(G55=0,#N/A,G55/$B55*1000)</f>
         <v>1.0304968678047704E-3</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>1.3739958237396939E-3</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>3.2632400813817726E-3</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>4.6372359051214665E-3</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>5.4959832949587756E-3</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>8.0722254644707003E-3</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="106"/>
         <v>1.2365962413657243E-2</v>
       </c>
-      <c r="N112" s="1" t="e">
-        <f t="shared" si="53"/>
+      <c r="N112" s="1">
+        <f t="shared" si="106"/>
+        <v>1.5800951973006478E-2</v>
+      </c>
+      <c r="O112" s="1" t="e">
+        <f t="shared" ref="O112" si="107">IF(O55=0,#N/A,O55/$B55*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" ref="G113:N113" si="54">IF(G56=0,#N/A,G56/$B56*1000)</f>
+        <f t="shared" ref="G113:N113" si="108">IF(G56=0,#N/A,G56/$B56*1000)</f>
         <v>1.9006183921113969E-2</v>
       </c>
-      <c r="H113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="H113" s="1">
+        <f t="shared" si="108"/>
+        <v>2.5917523528791776E-2</v>
+      </c>
+      <c r="I113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="I113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="J113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="J113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="K113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="K113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="L113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="L113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="M113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="M113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="N113" s="1" t="e">
+        <f t="shared" si="108"/>
         <v>#N/A</v>
       </c>
-      <c r="N113" s="1" t="e">
-        <f t="shared" si="54"/>
+      <c r="O113" s="1" t="e">
+        <f t="shared" ref="O113" si="109">IF(O56=0,#N/A,O56/$B56*1000)</f>
         <v>#N/A</v>
       </c>
     </row>
